--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3323.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3323.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9188565496489655</v>
+        <v>1.813119411468506</v>
       </c>
       <c r="B1">
-        <v>1.144681506286374</v>
+        <v>4.69143009185791</v>
       </c>
       <c r="C1">
-        <v>1.632764451006629</v>
+        <v>3.841070890426636</v>
       </c>
       <c r="D1">
-        <v>5.775107513571606</v>
+        <v>0.9031198024749756</v>
       </c>
       <c r="E1">
-        <v>5.199197735292097</v>
+        <v>0.4741781949996948</v>
       </c>
     </row>
   </sheetData>
